--- a/Isaev/NewIsaev/Rome/RandomForest/CV.xlsx
+++ b/Isaev/NewIsaev/Rome/RandomForest/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samples\DeepL\Isaev\NewIsaev\Rome\RandomForest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A6AAC-033F-4A72-95DC-B62B6D80F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8A866-65AE-4DF5-B060-31ABFE2BFAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9165" yWindow="510" windowWidth="17760" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>ResultAll (1)</t>
   </si>
@@ -229,6 +229,30 @@
   </si>
   <si>
     <t>0.00167831</t>
+  </si>
+  <si>
+    <t>0.00303602</t>
+  </si>
+  <si>
+    <t>0.00046678</t>
+  </si>
+  <si>
+    <t>0.00724913</t>
+  </si>
+  <si>
+    <t>0.00178465</t>
+  </si>
+  <si>
+    <t>0.00301148</t>
+  </si>
+  <si>
+    <t>0.00075952</t>
+  </si>
+  <si>
+    <t>0.00592717</t>
+  </si>
+  <si>
+    <t>0.00072525</t>
   </si>
 </sst>
 </file>
@@ -552,7 +576,7 @@
   <dimension ref="C1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,8 +771,12 @@
         <v>44</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L13" s="1" t="s">
         <v>64</v>
       </c>
@@ -773,8 +801,12 @@
         <v>45</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L14" s="1" t="s">
         <v>65</v>
       </c>
@@ -898,8 +930,12 @@
       <c r="G19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L19" s="1" t="s">
         <v>66</v>
       </c>
@@ -922,8 +958,12 @@
       <c r="G20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L20" s="1" t="s">
         <v>67</v>
       </c>
